--- a/Multi_cycle_cpu/多周期表数据通路和控制信号表.xlsx
+++ b/Multi_cycle_cpu/多周期表数据通路和控制信号表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="153">
   <si>
     <t>数据通路表（示例）</t>
   </si>
@@ -539,9 +539,6 @@
   </si>
   <si>
     <t>IR[15:0]</t>
-  </si>
-  <si>
-    <t>IR[20.16]</t>
   </si>
   <si>
     <t>bne</t>
@@ -1118,6 +1115,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1133,100 +1191,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1241,10 +1215,33 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1310,7 +1307,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1322,31 +1403,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,19 +1451,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,115 +1481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,6 +1655,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1672,35 +1684,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1722,26 +1721,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1753,10 +1750,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1768,130 +1765,130 @@
     <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2482,7 +2479,7 @@
   <dimension ref="A1:AH199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
@@ -10063,8 +10060,8 @@
   <sheetPr/>
   <dimension ref="A1:AH222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
@@ -11971,7 +11968,7 @@
         <v>68</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
@@ -12011,7 +12008,7 @@
     <row r="32" ht="21.75" customHeight="1" spans="1:34">
       <c r="A32" s="25"/>
       <c r="B32" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="31" t="s">
         <v>30</v>
@@ -12033,7 +12030,7 @@
         <v>68</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
@@ -12073,7 +12070,7 @@
     <row r="33" ht="21.75" customHeight="1" spans="1:34">
       <c r="A33" s="25"/>
       <c r="B33" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>30</v>
@@ -12107,7 +12104,7 @@
         <v>12</v>
       </c>
       <c r="R33" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S33" s="32" t="s">
         <v>71</v>
@@ -12133,7 +12130,7 @@
         <v>55</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" s="31" t="s">
         <v>30</v>
@@ -12142,7 +12139,7 @@
         <v>31</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="31" t="s">
@@ -12190,7 +12187,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="31" t="s">
@@ -12205,7 +12202,7 @@
         <v>58</v>
       </c>
       <c r="L35" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M35" s="32" t="s">
         <v>72</v>
@@ -12253,19 +12250,19 @@
         <v>31</v>
       </c>
       <c r="H36" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I36" s="33" t="s">
         <v>68</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="K36" s="32" t="s">
         <v>70</v>
       </c>
       <c r="L36" s="32" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="M36" s="33" t="s">
         <v>72</v>
@@ -12323,7 +12320,7 @@
         <v>69</v>
       </c>
       <c r="L37" s="32" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="M37" s="25"/>
       <c r="N37" s="25"/>
@@ -12358,7 +12355,7 @@
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
@@ -12369,7 +12366,7 @@
         <v>58</v>
       </c>
       <c r="L38" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M38" s="25"/>
       <c r="N38" s="25"/>
@@ -12379,7 +12376,7 @@
         <v>97</v>
       </c>
       <c r="R38" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S38" s="25"/>
       <c r="T38" s="25"/>
@@ -12439,7 +12436,7 @@
         <v>64</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -19081,7 +19078,7 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:27">
       <c r="A1" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -19112,37 +19109,37 @@
     </row>
     <row r="2" ht="16.5" spans="1:27">
       <c r="A2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
@@ -19166,30 +19163,30 @@
         <v>29</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="14" t="s">
         <v>126</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
@@ -19213,30 +19210,30 @@
         <v>42</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>126</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -19257,35 +19254,35 @@
     </row>
     <row r="5" ht="16.5" spans="1:27">
       <c r="A5" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>124</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K5" s="22" t="s">
         <v>131</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
@@ -19309,32 +19306,32 @@
         <v>48</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="F6" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>133</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>134</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K6" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>132</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
@@ -19358,32 +19355,32 @@
         <v>50</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>122</v>
-      </c>
       <c r="D7" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>136</v>
-      </c>
       <c r="G7" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>138</v>
-      </c>
       <c r="K7" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -19407,28 +19404,28 @@
         <v>53</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>122</v>
-      </c>
       <c r="D8" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -19452,24 +19449,24 @@
         <v>54</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>140</v>
-      </c>
       <c r="D9" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -19493,25 +19490,25 @@
         <v>56</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>142</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>143</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
       <c r="I10" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>145</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="11"/>
@@ -19565,7 +19562,7 @@
         <v>64</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -19596,7 +19593,7 @@
     <row r="13" ht="17.25" spans="1:27">
       <c r="A13" s="20"/>
       <c r="B13" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -19627,14 +19624,14 @@
     <row r="14" ht="16.5" spans="1:27">
       <c r="A14" s="21"/>
       <c r="B14" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -25080,7 +25077,7 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -25109,37 +25106,37 @@
     </row>
     <row r="2" ht="16.5" spans="1:25">
       <c r="A2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
@@ -25941,7 +25938,7 @@
     </row>
     <row r="30" ht="16.5" spans="1:25">
       <c r="A30" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -25970,7 +25967,7 @@
     </row>
     <row r="31" ht="16.5" spans="1:25">
       <c r="A31" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -25999,7 +25996,7 @@
     </row>
     <row r="32" ht="16.5" spans="1:25">
       <c r="A32" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -26087,7 +26084,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="9"/>
